--- a/文章/训练数据.xlsx
+++ b/文章/训练数据.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WANG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Project/SVM-MNISTS/文章/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="5140" yWindow="5340" windowWidth="25600" windowHeight="14640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="gamma" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,33 +36,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
+    <t>accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>accuracy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>time/s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,15 +91,109 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -100,6 +204,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C3:E13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="C3:E13"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="g" dataDxfId="4"/>
+    <tableColumn id="2" name="accuracy" dataDxfId="3"/>
+    <tableColumn id="3" name="time/s" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,135 +481,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="C3:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
         <v>0.01</v>
       </c>
-      <c r="B2">
+      <c r="D4" s="1">
         <v>0.98240000000000005</v>
       </c>
-      <c r="C2">
+      <c r="E4" s="1">
         <v>540.85984964735906</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="1">
         <v>0.02</v>
       </c>
-      <c r="B3">
+      <c r="D5" s="1">
         <v>0.98540000000000005</v>
       </c>
-      <c r="C3">
+      <c r="E5" s="1">
         <v>702.488091206121</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
         <v>0.03</v>
       </c>
-      <c r="B4">
+      <c r="D6" s="1">
         <v>0.98570000000000002</v>
       </c>
-      <c r="C4">
+      <c r="E6" s="1">
         <v>1036.33215008513</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="1">
         <v>0.04</v>
       </c>
-      <c r="B5">
+      <c r="D7" s="1">
         <v>0.98509999999999998</v>
       </c>
-      <c r="C5">
+      <c r="E7" s="1">
         <v>1296.60272094114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
         <v>0.05</v>
       </c>
-      <c r="B6">
+      <c r="D8" s="1">
         <v>0.98370000000000002</v>
       </c>
-      <c r="C6">
+      <c r="E8" s="1">
         <v>1696.89373080408</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
         <v>0.06</v>
       </c>
-      <c r="B7">
+      <c r="D9" s="1">
         <v>0.98199999999999998</v>
       </c>
-      <c r="C7">
+      <c r="E9" s="1">
         <v>2395.1296669854801</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B8">
+      <c r="D10" s="1">
         <v>0.9788</v>
       </c>
-      <c r="C8">
+      <c r="E10" s="1">
         <v>3926.4463040709402</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="1">
         <v>0.08</v>
       </c>
-      <c r="B9">
+      <c r="D11" s="1">
         <v>0.97460000000000002</v>
       </c>
-      <c r="C9">
+      <c r="E11" s="1">
         <v>6433.9797881078503</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
         <v>0.09</v>
       </c>
-      <c r="B10">
+      <c r="D12" s="1">
         <v>0.96730000000000005</v>
       </c>
-      <c r="C10">
+      <c r="E12" s="1">
         <v>8893.5064557213791</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
         <v>0.1</v>
       </c>
-      <c r="B11">
+      <c r="D13" s="1">
         <v>0.95699999999999996</v>
       </c>
-      <c r="C11">
+      <c r="E13" s="1">
         <v>11105.1156441369</v>
       </c>
     </row>
@@ -501,5 +618,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/文章/训练数据.xlsx
+++ b/文章/训练数据.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="5340" windowWidth="25600" windowHeight="14640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="gamma" sheetId="1" r:id="rId1"/>
+    <sheet name="c的改变" sheetId="2" r:id="rId1"/>
+    <sheet name="gamma的改变" sheetId="1" r:id="rId2"/>
+    <sheet name=" degree的改变" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>g</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +43,14 @@
   </si>
   <si>
     <t>time/s</t>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -77,12 +87,43 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -91,18 +132,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -193,6 +243,110 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -206,13 +360,68 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215900" y="101600"/>
+          <a:ext cx="3632200" cy="2641600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C3:E13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C3:E10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="C3:E10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="c" dataDxfId="4"/>
+    <tableColumn id="2" name="accuracy" dataDxfId="3"/>
+    <tableColumn id="3" name="time/s" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C3:E13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="C3:E13"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="g" dataDxfId="4"/>
-    <tableColumn id="2" name="accuracy" dataDxfId="3"/>
-    <tableColumn id="3" name="time/s" dataDxfId="2"/>
+    <tableColumn id="1" name="g" dataDxfId="9"/>
+    <tableColumn id="2" name="accuracy" dataDxfId="8"/>
+    <tableColumn id="3" name="time/s" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -481,10 +690,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3888.4964444616598</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="E5" s="1">
+        <v>901.39557073185597</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>917.95769341423295</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>907.68284478822898</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>914.25980011911895</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>928.65713281149897</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>902.99270948277001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -622,4 +942,20 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/文章/训练数据.xlsx
+++ b/文章/训练数据.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WANG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\SVM-MNISTS\文章\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="c参数" sheetId="2" r:id="rId1"/>
+    <sheet name="gamma参数" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>g</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,12 +38,24 @@
     <t>accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +71,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,12 +86,84 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -81,15 +172,228 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -100,6 +404,192 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289561</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>175261</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381501" y="0"/>
+          <a:ext cx="4152900" cy="5144012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361243</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8549640" y="0"/>
+          <a:ext cx="5657143" cy="4352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>572971</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4053840" y="0"/>
+          <a:ext cx="3636211" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312421</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>132101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8039101" y="1"/>
+          <a:ext cx="3809999" cy="4879360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="C3:E10" totalsRowShown="0" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+  <autoFilter ref="C3:E10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="c" dataDxfId="8"/>
+    <tableColumn id="2" name="accuracy" dataDxfId="7"/>
+    <tableColumn id="3" name="time" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:E13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4">
+  <autoFilter ref="C3:E13"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="g" dataDxfId="2"/>
+    <tableColumn id="2" name="accuracy" dataDxfId="1"/>
+    <tableColumn id="3" name="time" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,141 +855,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="C3:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="3" spans="3:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3888.4964444616598</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0.01</v>
-      </c>
-      <c r="B2">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="C2">
-        <v>540.85984964735906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0.02</v>
-      </c>
-      <c r="B3">
-        <v>0.98540000000000005</v>
-      </c>
-      <c r="C3">
-        <v>702.488091206121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0.03</v>
-      </c>
-      <c r="B4">
+      <c r="D5" s="1">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="E5" s="1">
+        <v>901.39557073185597</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.98570000000000002</v>
       </c>
-      <c r="C4">
-        <v>1036.33215008513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.04</v>
-      </c>
-      <c r="B5">
-        <v>0.98509999999999998</v>
-      </c>
-      <c r="C5">
-        <v>1296.60272094114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.05</v>
-      </c>
-      <c r="B6">
-        <v>0.98370000000000002</v>
-      </c>
-      <c r="C6">
-        <v>1696.89373080408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.06</v>
-      </c>
-      <c r="B7">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="C7">
-        <v>2395.1296669854801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B8">
-        <v>0.9788</v>
-      </c>
-      <c r="C8">
-        <v>3926.4463040709402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0.08</v>
-      </c>
-      <c r="B9">
-        <v>0.97460000000000002</v>
-      </c>
-      <c r="C9">
-        <v>6433.9797881078503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0.09</v>
-      </c>
-      <c r="B10">
-        <v>0.96730000000000005</v>
-      </c>
-      <c r="C10">
-        <v>8893.5064557213791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0.1</v>
-      </c>
-      <c r="B11">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="C11">
-        <v>11105.1156441369</v>
+      <c r="E6" s="1">
+        <v>917.95769341423295</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>907.68284478822898</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>914.25980011911895</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>928.65713281149897</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>902.99270948277001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:E13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="E4" s="1">
+        <v>540.85984964735906</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="E5" s="1">
+        <v>702.488091206121</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1036.33215008513</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1296.60272094114</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1696.89373080408</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2395.1296669854801</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.9788</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3926.4463040709402</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6433.9797881078503</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8893.5064557213791</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="E13" s="1">
+        <v>11105.1156441369</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>